--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3233.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3233.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.452705073228068</v>
+        <v>1.179728507995605</v>
       </c>
       <c r="B1">
-        <v>2.822535153524202</v>
+        <v>1.567793726921082</v>
       </c>
       <c r="C1">
-        <v>3.635885951777122</v>
+        <v>1.47925591468811</v>
       </c>
       <c r="D1">
-        <v>3.675353230133921</v>
+        <v>1.433712244033813</v>
       </c>
       <c r="E1">
-        <v>1.190547732698095</v>
+        <v>1.314712882041931</v>
       </c>
     </row>
   </sheetData>
